--- a/src/Images/excel/SolarIOT.xlsx
+++ b/src/Images/excel/SolarIOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shovan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DIU Projects\Running Project\Sustainable Water Solutions\sustainable-water-client\src\Images\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74630579-5550-40B4-B1D3-A20FA1427EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587FDC6-819B-4FEE-B320-3940545D9D5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{E454755D-92CC-4397-B631-667D7B9F3A27}"/>
+    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990" xr2:uid="{E454755D-92CC-4397-B631-667D7B9F3A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="500">
   <si>
     <t xml:space="preserve">pH: 6.57 </t>
   </si>
@@ -1530,6 +1530,9 @@
   </si>
   <si>
     <t xml:space="preserve">pH: 6.83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bat: 97%</t>
   </si>
 </sst>
 </file>
@@ -1882,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6160DD28-6A24-454C-AFC6-3F39BD0B070B}">
-  <dimension ref="A1:C462"/>
+  <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="C463" sqref="C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6973,6 +6976,17 @@
       </c>
       <c r="C462" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>55</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
